--- a/citas_creadas.xlsx
+++ b/citas_creadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB95CA-F411-445B-BAF3-BC5CD6AB5A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7C101-8C1D-4994-82B8-09F2680B0CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1512" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Felipe</t>
+  </si>
+  <si>
+    <t>21_01_2024</t>
   </si>
 </sst>
 </file>
@@ -367,20 +370,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,8 +396,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -407,8 +413,11 @@
       <c r="D2">
         <v>877</v>
       </c>
+      <c r="E2">
+        <v>916</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -421,8 +430,11 @@
       <c r="D3">
         <v>836</v>
       </c>
+      <c r="E3">
+        <v>890</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -435,8 +447,11 @@
       <c r="D4">
         <v>1044</v>
       </c>
+      <c r="E4">
+        <v>1068</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -448,6 +463,9 @@
       </c>
       <c r="D5">
         <v>2799</v>
+      </c>
+      <c r="E5">
+        <v>2845</v>
       </c>
     </row>
   </sheetData>

--- a/citas_creadas.xlsx
+++ b/citas_creadas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\estadistica_agendamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7C101-8C1D-4994-82B8-09F2680B0CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30AD1C-8F0E-46C8-8E3F-DA483E52D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -52,14 +52,25 @@
   </si>
   <si>
     <t>21_01_2024</t>
+  </si>
+  <si>
+    <t>28_01_2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,20 +382,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +411,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -416,8 +431,11 @@
       <c r="E2">
         <v>916</v>
       </c>
+      <c r="F2">
+        <v>983</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -433,8 +451,11 @@
       <c r="E3">
         <v>890</v>
       </c>
+      <c r="F3">
+        <v>933</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -450,8 +471,11 @@
       <c r="E4">
         <v>1068</v>
       </c>
+      <c r="F4">
+        <v>1108</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -467,6 +491,12 @@
       <c r="E5">
         <v>2845</v>
       </c>
+      <c r="F5">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/citas_creadas.xlsx
+++ b/citas_creadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorios\estadistica_agendamientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30AD1C-8F0E-46C8-8E3F-DA483E52D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F41ED4-0879-4ACC-BE27-CA57606A70F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Recepcionista</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>28_01_2024</t>
+  </si>
+  <si>
+    <t>07_02_2024</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,7 +398,7 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +417,11 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -434,8 +440,11 @@
       <c r="F2">
         <v>983</v>
       </c>
+      <c r="G2">
+        <v>1097</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -454,8 +463,11 @@
       <c r="F3">
         <v>933</v>
       </c>
+      <c r="G3">
+        <v>1072</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -474,8 +486,11 @@
       <c r="F4">
         <v>1108</v>
       </c>
+      <c r="G4">
+        <v>1157</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -494,8 +509,11 @@
       <c r="F5">
         <v>2882</v>
       </c>
+      <c r="G5">
+        <v>2930</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
   </sheetData>
